--- a/sku.xlsx
+++ b/sku.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,6 +442,11 @@
           <t>URL</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -454,6 +459,11 @@
           <t>https://ru.shein.com/Frill-Trim-Tie-Front-Crinkle-Dress-p-1167191-cat-1727.html</t>
         </is>
       </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Платье с узлом</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -466,6 +476,11 @@
           <t>https://ru.shein.com/SUNNY-LACE-Padded-Convertible-Bralette-p-1884852-cat-2203.html</t>
         </is>
       </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>SUNNY LACE Мягкий бралетт-трансформер</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -478,6 +493,11 @@
           <t>ошибка</t>
         </is>
       </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>ошибка</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -488,6 +508,11 @@
       <c r="B5" s="2" t="inlineStr">
         <is>
           <t>https://ru.shein.com/Men-Graphic-Lace-up-Front-Sneakers-p-2582728-cat-2093.html</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Мужские кроссовки на шнурке с графическим рисунком</t>
         </is>
       </c>
     </row>
